--- a/bookingProject/src/main/webapp/WEB-INF/excel/bookData.xlsx
+++ b/bookingProject/src/main/webapp/WEB-INF/excel/bookData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2145" yWindow="0" windowWidth="24240" windowHeight="10245"/>
+    <workbookView xWindow="3180" yWindow="0" windowWidth="24240" windowHeight="10245"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>글번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -79,6 +79,14 @@
   </si>
   <si>
     <t>${item.b_abprice}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${item.b_no}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -409,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -424,52 +432,58 @@
     <col min="6" max="6" width="18.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>12</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
